--- a/output/ejecucion_2/results/base0/base0_ci_rf_nrs.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_rf_nrs.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
+    <t>_tejgtotfun_f5amb</t>
+  </si>
+  <si>
+    <t>_tejgfun_f2ct05pgrco</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2pgrco</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct05opseg</t>
+  </si>
+  <si>
+    <t>compu_muni_5</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2opseg</t>
+  </si>
+  <si>
     <t>_tejgfun_f5ct05pgrco</t>
   </si>
   <si>
+    <t>_tejgct_r09gstcr</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r18ct05transpc</t>
+  </si>
+  <si>
     <t>_tejgtotfun_f5pgrco</t>
   </si>
   <si>
-    <t>compu_muni_5</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05opseg</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r08pgrcopc</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcr</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5amb</t>
+    <t>_dfgdevpiagge_r09ct05pobso</t>
+  </si>
+  <si>
+    <t>_tejgrb_redr</t>
+  </si>
+  <si>
+    <t>_devppimfun_f2ct05ind</t>
+  </si>
+  <si>
+    <t>_tejgge_r09ct05biser</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f5r18ct06pgrco</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r08ct05pgrcopc</t>
+  </si>
+  <si>
+    <t>dfgpimpiage_r08ct05dotra</t>
   </si>
   <si>
     <t>_tejgft_redr</t>
   </si>
   <si>
-    <t>_tejgrb_redr</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r08ct05pgrcopc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5r18ct05transpc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05opseg</t>
-  </si>
-  <si>
-    <t>_tejgft_rdet</t>
-  </si>
-  <si>
-    <t>_tejgct_r08gstcr</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2opseg</t>
-  </si>
-  <si>
-    <t>_tejgct_r08gstcrpc</t>
-  </si>
-  <si>
-    <t>dfgpimpiafun_f5ct06pgrco</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05amb</t>
-  </si>
-  <si>
-    <t>_tejgge_r09ct05biser</t>
-  </si>
-  <si>
-    <t>dfgpimpiagkft_rdetpc</t>
-  </si>
-  <si>
-    <t>_devppimge_r18ct05biser</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r08ct05pgrco</t>
-  </si>
-  <si>
-    <t>_pimgfun_f5r18ct06opseg</t>
-  </si>
-  <si>
-    <t>_devppimfun_f2ct05ind</t>
+    <t>dfgdevpiagfun_f5r18ct06pgrco</t>
+  </si>
+  <si>
+    <t>dfgdevpiagge_r00ct05biser</t>
+  </si>
+  <si>
+    <t>dfgpimpiatotfun_f5pgrco</t>
+  </si>
+  <si>
+    <t>_tejgge_r08ct05biser</t>
+  </si>
+  <si>
+    <t>_dfgpimpiagge_r09ct05otgst</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r07ct05pgrcopc</t>
+  </si>
+  <si>
+    <t>tejgge_r07ct05otgstpc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5ct05sanpc</t>
+  </si>
+  <si>
+    <t>_tejgct_r09gstcrpc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5ct05transpc</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct05amb</t>
+  </si>
+  <si>
+    <t>orgs_3</t>
+  </si>
+  <si>
+    <t>pimgfun_f1ct06san</t>
+  </si>
+  <si>
+    <t>_piagge_r09ct05otgstpc</t>
+  </si>
+  <si>
+    <t>_tejgge_r08ct05pobso</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct05opseg</t>
+  </si>
+  <si>
+    <t>pimgtotfun_f5trans</t>
+  </si>
+  <si>
+    <t>devppimfun_f2ct06agro</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagct_r18gstcp</t>
+  </si>
+  <si>
+    <t>piagtotfun_f5r07protspc</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f5ct05sanpc</t>
+  </si>
+  <si>
+    <t>piagge_r18ct06acanfpc</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagge_r09ct05popso</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f4transpc</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5edu</t>
+  </si>
+  <si>
+    <t>pimgfun_f5ct06trans</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5r18amb</t>
   </si>
   <si>
     <t>tdvgfun_f5ct05prots</t>
   </si>
   <si>
-    <t>_devppimtotfun_f2ind</t>
-  </si>
-  <si>
-    <t>_tejgrb_impm</t>
-  </si>
-  <si>
-    <t>dfgpimpiafun_f5r07ct06amb</t>
-  </si>
-  <si>
-    <t>_tejgge_r08ct05biser</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagge_r07ct05biserpc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5r18ct05trans</t>
-  </si>
-  <si>
-    <t>pimgfun_f5ct05prots</t>
-  </si>
-  <si>
-    <t>dfgdevpiagrb_foncpc</t>
-  </si>
-  <si>
-    <t>_devppimct_r18gstcr</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r08pgrco</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2amb</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5r08ct05opsegpc</t>
-  </si>
-  <si>
-    <t>_tejgrb_impmpc</t>
-  </si>
-  <si>
-    <t>tdvgge_r00ct06acanfpc</t>
-  </si>
-  <si>
-    <t>devppimrb_canr</t>
-  </si>
-  <si>
-    <t>dfgpimpiagge_r07ct05pobsopc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5ct05sanpc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagct_r07gstcrpc</t>
-  </si>
-  <si>
-    <t>tdvgge_r09ct05otgst</t>
-  </si>
-  <si>
-    <t>_pimgtotfun_f5prots</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f4transpc</t>
-  </si>
-  <si>
-    <t>tdvgct_r00gstcppc</t>
-  </si>
-  <si>
-    <t>_pimgfun_f2ct05cydeppc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05pgrco</t>
+    <t>pimgtotfun_f1san</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r07ct06protspc</t>
+  </si>
+  <si>
+    <t>_piagfun_f1ct05trans</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01131112308697134</v>
+        <v>0.03002000106757184</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.01012838986620305</v>
+        <v>0.01867467115288111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00728255282159493</v>
+        <v>0.01051242608725471</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.006638362717724232</v>
+        <v>0.00763376342751429</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.006166219167406287</v>
+        <v>0.006460877857838675</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.005857497982143666</v>
+        <v>0.00535427581093951</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.005709825177210285</v>
+        <v>0.005278559730775546</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.004617437477666761</v>
+        <v>0.00428265947448246</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.004577771803513427</v>
+        <v>0.003542455175140605</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.004110605128919394</v>
+        <v>0.003470145944405625</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.004082399703305874</v>
+        <v>0.002537196169125774</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.003889685988420482</v>
+        <v>0.002489239240342244</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.003610276435991126</v>
+        <v>0.002440416190272476</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.00320878880157056</v>
+        <v>0.002422350692369926</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.003141843599723039</v>
+        <v>0.002399428535304918</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.00267998233694933</v>
+        <v>0.00208420263588348</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.002651350621497706</v>
+        <v>0.002071055752040122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.002591670937697474</v>
+        <v>0.001957159008484327</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.002544223906788516</v>
+        <v>0.001953594808568985</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.002533293983088178</v>
+        <v>0.001896939070291455</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.002525890943111683</v>
+        <v>0.001817638524801889</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.00241361734385405</v>
+        <v>0.001803351475839784</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.002211164099908259</v>
+        <v>0.001779235663121049</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.002171192041172943</v>
+        <v>0.001776720473692271</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.002041825581274308</v>
+        <v>0.00170975753021845</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.002031830982435693</v>
+        <v>0.00170973117518319</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.001964672714246875</v>
+        <v>0.001625716086467806</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.00194041096872106</v>
+        <v>0.001622978304318528</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.001927809121257386</v>
+        <v>0.001620755641833165</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001830471762666272</v>
+        <v>0.001616406908461108</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.001790977201522144</v>
+        <v>0.001536330062520839</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001697488154911634</v>
+        <v>0.001531763891005311</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.001673280031389263</v>
+        <v>0.001511745792653283</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.001670705429817221</v>
+        <v>0.001502753553425762</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.001653170989569553</v>
+        <v>0.001482912450858794</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.001570841926755706</v>
+        <v>0.001480073803481577</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.001529350175305167</v>
+        <v>0.001471117250740902</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.001509865028557732</v>
+        <v>0.001464363212062589</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.001467333125937943</v>
+        <v>0.001442669562939713</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.001437882463234556</v>
+        <v>0.001435588685041514</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.001356986601954899</v>
+        <v>0.001430916248202294</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.001304667929374579</v>
+        <v>0.001417916097694246</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.001237298154021482</v>
+        <v>0.001410103777947798</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.001235584386626285</v>
+        <v>0.001391649698358097</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.001196435090122961</v>
+        <v>0.001372279591767399</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.001174480945739826</v>
+        <v>0.00134644840544339</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.00117235703491035</v>
+        <v>0.001302789619331439</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.001121509135034232</v>
+        <v>0.001285009267155171</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.001118803502163985</v>
+        <v>0.001283891390710773</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.001088250426532356</v>
+        <v>0.001269718288626472</v>
       </c>
     </row>
   </sheetData>
